--- a/writing/study_areas.xlsx
+++ b/writing/study_areas.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD94B3E3-CB81-4C15-9212-4C99994C1F3C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -76,9 +75,6 @@
     <t>Ormond Beach, FL</t>
   </si>
   <si>
-    <t>Penobscot, MA</t>
-  </si>
-  <si>
     <t>Flat coastal</t>
   </si>
   <si>
@@ -91,52 +87,31 @@
     <t>In Acadia</t>
   </si>
   <si>
-    <t>Sixmile Creek</t>
-  </si>
-  <si>
-    <t>Outisde Madison, WI</t>
-  </si>
-  <si>
-    <t>Suburban, Agricultural</t>
-  </si>
-  <si>
-    <t>070900020602</t>
-  </si>
-  <si>
     <t>Near Alamo, NM</t>
   </si>
   <si>
-    <t>Ox Spring Canyon</t>
-  </si>
-  <si>
     <t>Desert, Forest</t>
   </si>
   <si>
     <t>130202090102</t>
   </si>
   <si>
-    <t>Bergie Springs-Spring Creek</t>
-  </si>
-  <si>
-    <t>South-Central WA</t>
-  </si>
-  <si>
     <t>Central CO</t>
   </si>
   <si>
     <t>Kelley, IA</t>
   </si>
   <si>
-    <t>Arid Forests</t>
-  </si>
-  <si>
     <t>Rugged forested coastal</t>
+  </si>
+  <si>
+    <t>Penobscot, ME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,23 +426,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.265625" customWidth="1"/>
-    <col min="3" max="3" width="17.73046875" customWidth="1"/>
-    <col min="4" max="5" width="21.46484375" customWidth="1"/>
-    <col min="6" max="6" width="13.53125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -487,58 +462,61 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>110200010603</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>35.426180000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>180500020905</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>25.325230000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>110200010603</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>35.426180000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>50.654502000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <v>103.49835</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -549,7 +527,7 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>48.627026999999998</v>
@@ -558,78 +536,44 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>103.49835</v>
-      </c>
-      <c r="F6" t="s">
+        <v>50.654502000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>63.814878999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8">
         <v>66.101353000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>170300030703</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9">
-        <v>52.819569999999999</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A2:F9">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/writing/study_areas.xlsx
+++ b/writing/study_areas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="11745"/>
+    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/writing/study_areas.xlsx
+++ b/writing/study_areas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="11745"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Complete/Incomplete Data Coverage</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -106,19 +130,76 @@
   </si>
   <si>
     <t>Penobscot, ME</t>
+  </si>
+  <si>
+    <t>C/I</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>080102040304</t>
+  </si>
+  <si>
+    <t>North Fork Forked Deer River Middle</t>
+  </si>
+  <si>
+    <t>Western TN</t>
+  </si>
+  <si>
+    <t>Cropland</t>
+  </si>
+  <si>
+    <t>Southeast of Pitkin, CO</t>
+  </si>
+  <si>
+    <t>010500021301</t>
+  </si>
+  <si>
+    <t>Branch Lake</t>
+  </si>
+  <si>
+    <t>030801030201</t>
+  </si>
+  <si>
+    <t>Long Swamp</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Mineral Creek</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,10 +222,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -426,61 +522,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.28515625" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="5" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="G1" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>110200010603</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>35.426180000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>180500020905</v>
       </c>
       <c r="B3" t="s">
@@ -492,12 +595,15 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>25.325230000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
@@ -509,15 +615,18 @@
       <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>103.49835</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
@@ -529,15 +638,18 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>48.627026999999998</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
@@ -549,12 +661,15 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>50.654502000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B7" t="s">
@@ -566,8 +681,91 @@
       <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>66.101353000000003</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="4">
+        <v>161.12558999999999</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4">
+        <v>79.98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4">
+        <v>48.627026999999998</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>140801040103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4">
+        <v>136.83000000000001</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -576,5 +774,6 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/writing/study_areas.xlsx
+++ b/writing/study_areas.xlsx
@@ -168,17 +168,17 @@
     <t>Long Swamp</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Mineral Creek</t>
+  </si>
+  <si>
+    <t>Ox Spring Canyon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,13 +201,37 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -219,10 +243,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -243,8 +269,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -526,7 +556,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>110200010603</v>
       </c>
@@ -578,7 +608,7 @@
       <c r="E2" s="4">
         <v>35.426180000000002</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -598,11 +628,11 @@
       <c r="E3" s="4">
         <v>25.325230000000001</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -621,11 +651,11 @@
       <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -644,7 +674,7 @@
       <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -664,7 +694,7 @@
       <c r="E6" s="4">
         <v>50.654502000000001</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -673,7 +703,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -684,8 +714,8 @@
       <c r="E7" s="4">
         <v>66.101353000000003</v>
       </c>
-      <c r="G7" t="s">
-        <v>41</v>
+      <c r="G7" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -704,7 +734,7 @@
       <c r="E8" s="4">
         <v>161.12558999999999</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -724,8 +754,8 @@
       <c r="E9" s="4">
         <v>79.98</v>
       </c>
-      <c r="G9" t="s">
-        <v>41</v>
+      <c r="G9" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -744,8 +774,8 @@
       <c r="E10" s="4">
         <v>48.627026999999998</v>
       </c>
-      <c r="G10" t="s">
-        <v>41</v>
+      <c r="G10" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -753,7 +783,7 @@
         <v>140801040103</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -764,8 +794,8 @@
       <c r="E11" s="4">
         <v>136.83000000000001</v>
       </c>
-      <c r="G11" t="s">
-        <v>41</v>
+      <c r="G11" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
